--- a/BR_Plot_Data.xlsx
+++ b/BR_Plot_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/rxf568_miami_edu/Documents/Peru - Boiling River/Data analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4410" documentId="8_{F6B78642-D200-9547-9F28-566E36DA5CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E40658-6860-43CE-B831-8B2664C7A4E0}"/>
+  <xr:revisionPtr revIDLastSave="4411" documentId="8_{F6B78642-D200-9547-9F28-566E36DA5CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDBA9FA7-1558-4888-9FFA-45438E178690}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89C23CE8-5AA5-7047-8F35-9D59340D2AD5}"/>
+    <workbookView xWindow="6240" yWindow="750" windowWidth="21600" windowHeight="14070" xr2:uid="{89C23CE8-5AA5-7047-8F35-9D59340D2AD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="559">
   <si>
     <t>Plot</t>
   </si>
@@ -1493,9 +1493,6 @@
   </si>
   <si>
     <t>Heisteria</t>
-  </si>
-  <si>
-    <t>asplundii</t>
   </si>
   <si>
     <t>Urera</t>
@@ -1783,10 +1780,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2089,8 +2082,8 @@
   <dimension ref="A1:M649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G106" sqref="G106"/>
+      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F516" sqref="F516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2437,10 +2430,10 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
+        <v>550</v>
+      </c>
+      <c r="F15" t="s">
         <v>551</v>
-      </c>
-      <c r="F15" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2557,10 +2550,10 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
+        <v>550</v>
+      </c>
+      <c r="F21" t="s">
         <v>551</v>
-      </c>
-      <c r="F21" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2686,10 +2679,10 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
+        <v>550</v>
+      </c>
+      <c r="F27" t="s">
         <v>551</v>
-      </c>
-      <c r="F27" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3452,10 +3445,10 @@
         <v>13</v>
       </c>
       <c r="E61" t="s">
+        <v>550</v>
+      </c>
+      <c r="F61" t="s">
         <v>551</v>
-      </c>
-      <c r="F61" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4442,10 +4435,10 @@
         <v>13</v>
       </c>
       <c r="E109" t="s">
+        <v>550</v>
+      </c>
+      <c r="F109" t="s">
         <v>551</v>
-      </c>
-      <c r="F109" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -5766,7 +5759,7 @@
         <v>137</v>
       </c>
       <c r="F171" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I171">
         <v>4.8</v>
@@ -6151,7 +6144,7 @@
         <v>137</v>
       </c>
       <c r="F188" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I188">
         <v>3.2</v>
@@ -7355,10 +7348,10 @@
         <v>2.98</v>
       </c>
       <c r="D244" t="s">
+        <v>502</v>
+      </c>
+      <c r="E244" t="s">
         <v>503</v>
-      </c>
-      <c r="E244" t="s">
-        <v>504</v>
       </c>
       <c r="F244" t="s">
         <v>219</v>
@@ -8337,10 +8330,10 @@
         <v>2.42</v>
       </c>
       <c r="D289" t="s">
+        <v>502</v>
+      </c>
+      <c r="E289" t="s">
         <v>503</v>
-      </c>
-      <c r="E289" t="s">
-        <v>504</v>
       </c>
       <c r="F289" t="s">
         <v>219</v>
@@ -8429,7 +8422,7 @@
         <v>350</v>
       </c>
       <c r="F293" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -8604,7 +8597,7 @@
         <v>189</v>
       </c>
       <c r="F301" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
@@ -8873,10 +8866,10 @@
         <v>13</v>
       </c>
       <c r="E314" t="s">
+        <v>550</v>
+      </c>
+      <c r="F314" t="s">
         <v>551</v>
-      </c>
-      <c r="F314" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -10009,10 +10002,10 @@
         <v>2.92</v>
       </c>
       <c r="D369" t="s">
+        <v>502</v>
+      </c>
+      <c r="E369" t="s">
         <v>503</v>
-      </c>
-      <c r="E369" t="s">
-        <v>504</v>
       </c>
       <c r="F369" t="s">
         <v>219</v>
@@ -11675,7 +11668,7 @@
         <v>210</v>
       </c>
       <c r="F447" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
@@ -11879,7 +11872,7 @@
         <v>311</v>
       </c>
       <c r="F456" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
@@ -12134,7 +12127,7 @@
         <v>311</v>
       </c>
       <c r="F468" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
@@ -12263,7 +12256,7 @@
         <v>350</v>
       </c>
       <c r="F474" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
@@ -12761,7 +12754,7 @@
         <v>474</v>
       </c>
       <c r="F498" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
@@ -13124,7 +13117,7 @@
         <v>485</v>
       </c>
       <c r="F516" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
@@ -13141,10 +13134,10 @@
         <v>196</v>
       </c>
       <c r="E517" t="s">
+        <v>486</v>
+      </c>
+      <c r="F517" t="s">
         <v>487</v>
-      </c>
-      <c r="F517" t="s">
-        <v>488</v>
       </c>
       <c r="I517">
         <v>6.8</v>
@@ -13152,7 +13145,7 @@
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B518">
         <v>10.9</v>
@@ -13167,12 +13160,12 @@
         <v>137</v>
       </c>
       <c r="F518" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B519">
         <v>13.7</v>
@@ -13192,7 +13185,7 @@
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B520">
         <v>4.0999999999999996</v>
@@ -13215,7 +13208,7 @@
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B521">
         <v>41.4</v>
@@ -13227,15 +13220,15 @@
         <v>24</v>
       </c>
       <c r="E521" t="s">
+        <v>490</v>
+      </c>
+      <c r="F521" t="s">
         <v>491</v>
-      </c>
-      <c r="F521" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B522">
         <v>23.2</v>
@@ -13255,7 +13248,7 @@
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B523">
         <v>5.9</v>
@@ -13278,7 +13271,7 @@
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B524">
         <v>2.5</v>
@@ -13290,15 +13283,15 @@
         <v>27</v>
       </c>
       <c r="E524" t="s">
+        <v>492</v>
+      </c>
+      <c r="F524" t="s">
         <v>493</v>
-      </c>
-      <c r="F524" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B525">
         <v>5.6</v>
@@ -13313,12 +13306,12 @@
         <v>38</v>
       </c>
       <c r="F525" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B526">
         <v>6.1</v>
@@ -13338,7 +13331,7 @@
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B527">
         <v>11.1</v>
@@ -13358,7 +13351,7 @@
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B528">
         <v>14</v>
@@ -13372,7 +13365,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B529">
         <v>2.4</v>
@@ -13392,7 +13385,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B530">
         <v>18.5</v>
@@ -13412,7 +13405,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B531">
         <v>7.9</v>
@@ -13424,15 +13417,15 @@
         <v>196</v>
       </c>
       <c r="E531" t="s">
+        <v>486</v>
+      </c>
+      <c r="F531" t="s">
         <v>487</v>
-      </c>
-      <c r="F531" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B532">
         <v>2.5</v>
@@ -13444,7 +13437,7 @@
         <v>246</v>
       </c>
       <c r="E532" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F532" t="s">
         <v>470</v>
@@ -13452,7 +13445,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B533">
         <v>5</v>
@@ -13467,12 +13460,12 @@
         <v>25</v>
       </c>
       <c r="F533" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B534">
         <v>5.6</v>
@@ -13487,12 +13480,12 @@
         <v>25</v>
       </c>
       <c r="F534" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B535">
         <v>9.4</v>
@@ -13507,12 +13500,12 @@
         <v>25</v>
       </c>
       <c r="F535" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B536">
         <v>3.3</v>
@@ -13532,7 +13525,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B537">
         <v>11.1</v>
@@ -13552,7 +13545,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B538">
         <v>10.3</v>
@@ -13564,15 +13557,15 @@
         <v>50</v>
       </c>
       <c r="E538" t="s">
+        <v>499</v>
+      </c>
+      <c r="F538" t="s">
         <v>500</v>
-      </c>
-      <c r="F538" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B539">
         <v>5.8</v>
@@ -13592,7 +13585,7 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B540">
         <v>4.4000000000000004</v>
@@ -13612,7 +13605,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B541">
         <v>19.7</v>
@@ -13632,7 +13625,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B542">
         <v>6</v>
@@ -13652,7 +13645,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B543">
         <v>8.5</v>
@@ -13667,12 +13660,12 @@
         <v>25</v>
       </c>
       <c r="F543" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B544">
         <v>2.1</v>
@@ -13692,7 +13685,7 @@
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B545">
         <v>5.7</v>
@@ -13704,15 +13697,15 @@
         <v>62</v>
       </c>
       <c r="E545" t="s">
+        <v>505</v>
+      </c>
+      <c r="F545" t="s">
         <v>506</v>
-      </c>
-      <c r="F545" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B546">
         <v>9.8000000000000007</v>
@@ -13732,7 +13725,7 @@
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B547">
         <v>3.7</v>
@@ -13752,7 +13745,7 @@
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B548">
         <v>3.4</v>
@@ -13772,7 +13765,7 @@
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B549">
         <v>7.5</v>
@@ -13795,7 +13788,7 @@
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B550">
         <v>3.5</v>
@@ -13815,7 +13808,7 @@
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B551">
         <v>21.3</v>
@@ -13835,7 +13828,7 @@
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B552">
         <v>7.4</v>
@@ -13850,12 +13843,12 @@
         <v>134</v>
       </c>
       <c r="F552" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B553">
         <v>2.2999999999999998</v>
@@ -13870,12 +13863,12 @@
         <v>133</v>
       </c>
       <c r="F553" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B554">
         <v>4.4000000000000004</v>
@@ -13890,7 +13883,7 @@
         <v>65</v>
       </c>
       <c r="F554" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I554">
         <v>4.0999999999999996</v>
@@ -13898,7 +13891,7 @@
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B555">
         <v>5.2</v>
@@ -13913,12 +13906,12 @@
         <v>134</v>
       </c>
       <c r="F555" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B556">
         <v>5.7</v>
@@ -13930,7 +13923,7 @@
         <v>15</v>
       </c>
       <c r="E556" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F556" t="s">
         <v>470</v>
@@ -13938,7 +13931,7 @@
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B557">
         <v>2.4</v>
@@ -13950,15 +13943,15 @@
         <v>62</v>
       </c>
       <c r="E557" t="s">
+        <v>505</v>
+      </c>
+      <c r="F557" t="s">
         <v>506</v>
-      </c>
-      <c r="F557" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B558">
         <v>2.2999999999999998</v>
@@ -13978,7 +13971,7 @@
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B559">
         <v>3.7</v>
@@ -13990,7 +13983,7 @@
         <v>15</v>
       </c>
       <c r="E559" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F559" t="s">
         <v>470</v>
@@ -13998,7 +13991,7 @@
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B560">
         <v>31.2</v>
@@ -14018,7 +14011,7 @@
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B561">
         <v>18.8</v>
@@ -14038,7 +14031,7 @@
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B562">
         <v>22.3</v>
@@ -14053,12 +14046,12 @@
         <v>350</v>
       </c>
       <c r="F562" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B563">
         <v>2.8</v>
@@ -14078,7 +14071,7 @@
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B564">
         <v>2.7</v>
@@ -14098,7 +14091,7 @@
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B565">
         <v>8.3000000000000007</v>
@@ -14113,12 +14106,12 @@
         <v>65</v>
       </c>
       <c r="F565" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B566">
         <v>21.6</v>
@@ -14133,12 +14126,12 @@
         <v>316</v>
       </c>
       <c r="F566" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B567">
         <v>7.3</v>
@@ -14147,10 +14140,10 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="D567" t="s">
+        <v>502</v>
+      </c>
+      <c r="E567" t="s">
         <v>503</v>
-      </c>
-      <c r="E567" t="s">
-        <v>504</v>
       </c>
       <c r="F567" t="s">
         <v>219</v>
@@ -14161,7 +14154,7 @@
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B568">
         <v>6.9</v>
@@ -14181,7 +14174,7 @@
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B569">
         <v>20</v>
@@ -14201,7 +14194,7 @@
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B570">
         <v>40</v>
@@ -14221,7 +14214,7 @@
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B571">
         <v>2</v>
@@ -14241,7 +14234,7 @@
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B572">
         <v>4.0999999999999996</v>
@@ -14256,12 +14249,12 @@
         <v>146</v>
       </c>
       <c r="F572" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B573">
         <v>2.6</v>
@@ -14276,12 +14269,12 @@
         <v>146</v>
       </c>
       <c r="F573" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B574">
         <v>3.2</v>
@@ -14301,7 +14294,7 @@
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B575">
         <v>21.3</v>
@@ -14321,7 +14314,7 @@
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B576">
         <v>7.7</v>
@@ -14330,10 +14323,10 @@
         <v>0.83</v>
       </c>
       <c r="D576" t="s">
+        <v>514</v>
+      </c>
+      <c r="E576" t="s">
         <v>515</v>
-      </c>
-      <c r="E576" t="s">
-        <v>516</v>
       </c>
       <c r="F576" t="s">
         <v>470</v>
@@ -14341,7 +14334,7 @@
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B577">
         <v>3.2</v>
@@ -14364,7 +14357,7 @@
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B578">
         <v>26.7</v>
@@ -14381,7 +14374,7 @@
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B579">
         <v>7.7</v>
@@ -14401,7 +14394,7 @@
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B580">
         <v>2</v>
@@ -14413,15 +14406,15 @@
         <v>62</v>
       </c>
       <c r="E580" t="s">
+        <v>505</v>
+      </c>
+      <c r="F580" t="s">
         <v>506</v>
-      </c>
-      <c r="F580" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B581">
         <v>13.2</v>
@@ -14441,7 +14434,7 @@
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B582">
         <v>16.899999999999999</v>
@@ -14464,7 +14457,7 @@
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B583">
         <v>20</v>
@@ -14496,7 +14489,7 @@
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B584">
         <v>4.3</v>
@@ -14516,7 +14509,7 @@
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B585">
         <v>2.2000000000000002</v>
@@ -14536,7 +14529,7 @@
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B586">
         <v>11</v>
@@ -14562,7 +14555,7 @@
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B587">
         <v>2.2999999999999998</v>
@@ -14582,7 +14575,7 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B588">
         <v>2.7</v>
@@ -14602,7 +14595,7 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B589">
         <v>3.5</v>
@@ -14622,7 +14615,7 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B590">
         <v>3.4</v>
@@ -14637,12 +14630,12 @@
         <v>137</v>
       </c>
       <c r="F590" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B591">
         <v>36.6</v>
@@ -14662,7 +14655,7 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B592">
         <v>10.8</v>
@@ -14674,15 +14667,15 @@
         <v>226</v>
       </c>
       <c r="E592" t="s">
+        <v>519</v>
+      </c>
+      <c r="F592" t="s">
         <v>520</v>
-      </c>
-      <c r="F592" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B593">
         <v>2.1</v>
@@ -14697,12 +14690,12 @@
         <v>296</v>
       </c>
       <c r="F593" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B594">
         <v>5.5</v>
@@ -14725,7 +14718,7 @@
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B595">
         <v>8.9</v>
@@ -14740,7 +14733,7 @@
         <v>137</v>
       </c>
       <c r="F595" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I595">
         <v>3.9</v>
@@ -14751,7 +14744,7 @@
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B596">
         <v>6.3</v>
@@ -14771,7 +14764,7 @@
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B597">
         <v>23</v>
@@ -14791,7 +14784,7 @@
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B598">
         <v>16.899999999999999</v>
@@ -14811,7 +14804,7 @@
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B599">
         <v>2.4</v>
@@ -14831,7 +14824,7 @@
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B600">
         <v>3</v>
@@ -14840,10 +14833,10 @@
         <v>2.02</v>
       </c>
       <c r="D600" t="s">
+        <v>502</v>
+      </c>
+      <c r="E600" t="s">
         <v>503</v>
-      </c>
-      <c r="E600" t="s">
-        <v>504</v>
       </c>
       <c r="F600" t="s">
         <v>219</v>
@@ -14851,7 +14844,7 @@
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B601">
         <v>6.8</v>
@@ -14866,12 +14859,12 @@
         <v>133</v>
       </c>
       <c r="F601" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B602">
         <v>10.9</v>
@@ -14886,12 +14879,12 @@
         <v>311</v>
       </c>
       <c r="F602" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B603">
         <v>18</v>
@@ -14917,7 +14910,7 @@
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B604">
         <v>13.7</v>
@@ -14937,7 +14930,7 @@
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B605">
         <v>3.8</v>
@@ -14963,7 +14956,7 @@
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B606">
         <v>4.8</v>
@@ -14983,7 +14976,7 @@
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B607">
         <v>6.3</v>
@@ -15003,7 +14996,7 @@
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B608">
         <v>4.0999999999999996</v>
@@ -15023,7 +15016,7 @@
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B609">
         <v>6.4</v>
@@ -15043,7 +15036,7 @@
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B610">
         <v>4.3</v>
@@ -15063,7 +15056,7 @@
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B611">
         <v>8.6999999999999993</v>
@@ -15078,12 +15071,12 @@
         <v>169</v>
       </c>
       <c r="F611" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B612">
         <v>9</v>
@@ -15106,7 +15099,7 @@
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B613">
         <v>18.5</v>
@@ -15126,7 +15119,7 @@
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B614">
         <v>3.7</v>
@@ -15138,15 +15131,15 @@
         <v>62</v>
       </c>
       <c r="E614" t="s">
+        <v>505</v>
+      </c>
+      <c r="F614" t="s">
         <v>506</v>
-      </c>
-      <c r="F614" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B615">
         <v>4.2</v>
@@ -15166,7 +15159,7 @@
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B616">
         <v>7.8</v>
@@ -15175,10 +15168,10 @@
         <v>2.19</v>
       </c>
       <c r="D616" t="s">
+        <v>528</v>
+      </c>
+      <c r="E616" t="s">
         <v>529</v>
-      </c>
-      <c r="E616" t="s">
-        <v>530</v>
       </c>
       <c r="F616" t="s">
         <v>470</v>
@@ -15186,7 +15179,7 @@
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B617">
         <v>4.4000000000000004</v>
@@ -15206,7 +15199,7 @@
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B618">
         <v>8.1</v>
@@ -15215,18 +15208,18 @@
         <v>1.2</v>
       </c>
       <c r="D618" t="s">
+        <v>552</v>
+      </c>
+      <c r="E618" t="s">
         <v>553</v>
       </c>
-      <c r="E618" t="s">
+      <c r="F618" t="s">
         <v>554</v>
-      </c>
-      <c r="F618" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B619">
         <v>11.9</v>
@@ -15246,7 +15239,7 @@
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B620">
         <v>3.9</v>
@@ -15258,15 +15251,15 @@
         <v>6</v>
       </c>
       <c r="E620" t="s">
+        <v>530</v>
+      </c>
+      <c r="F620" t="s">
         <v>531</v>
-      </c>
-      <c r="F620" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B621">
         <v>63.7</v>
@@ -15278,15 +15271,15 @@
         <v>15</v>
       </c>
       <c r="E621" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F621" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="F621" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B622">
         <v>12.1</v>
@@ -15306,7 +15299,7 @@
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B623">
         <v>9.1</v>
@@ -15326,7 +15319,7 @@
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B624">
         <v>22</v>
@@ -15346,7 +15339,7 @@
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B625">
         <v>8.4</v>
@@ -15369,7 +15362,7 @@
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B626">
         <v>5</v>
@@ -15381,10 +15374,10 @@
         <v>226</v>
       </c>
       <c r="E626" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F626" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="F626" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="I626">
         <v>2.6</v>
@@ -15392,7 +15385,7 @@
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B627">
         <v>39.5</v>
@@ -15404,15 +15397,15 @@
         <v>15</v>
       </c>
       <c r="E627" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F627" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="F627" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B628">
         <v>3.3</v>
@@ -15424,10 +15417,10 @@
         <v>132</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F628" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I628">
         <v>2.5</v>
@@ -15435,7 +15428,7 @@
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B629">
         <v>4.2</v>
@@ -15447,15 +15440,15 @@
         <v>132</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B630">
         <v>4.2</v>
@@ -15467,10 +15460,10 @@
         <v>132</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F630" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I630">
         <v>3.1</v>
@@ -15481,7 +15474,7 @@
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B631">
         <v>2.2000000000000002</v>
@@ -15496,12 +15489,12 @@
         <v>67</v>
       </c>
       <c r="F631" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B632">
         <v>10.7</v>
@@ -15521,7 +15514,7 @@
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B633">
         <v>6.4</v>
@@ -15544,7 +15537,7 @@
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B634">
         <v>10.6</v>
@@ -15559,7 +15552,7 @@
         <v>137</v>
       </c>
       <c r="F634" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I634">
         <v>9</v>
@@ -15570,7 +15563,7 @@
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B635">
         <v>22</v>
@@ -15585,12 +15578,12 @@
         <v>169</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B636">
         <v>11.6</v>
@@ -15616,7 +15609,7 @@
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B637">
         <v>23</v>
@@ -15636,7 +15629,7 @@
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B638">
         <v>6.4</v>
@@ -15656,7 +15649,7 @@
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B639">
         <v>11.9</v>
@@ -15676,7 +15669,7 @@
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B640">
         <v>3</v>
@@ -15688,10 +15681,10 @@
         <v>75</v>
       </c>
       <c r="E640" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F640" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="F640" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="I640">
         <v>2.1</v>
@@ -15699,7 +15692,7 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B641">
         <v>21</v>
@@ -15719,7 +15712,7 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B642">
         <v>65.900000000000006</v>
@@ -15739,7 +15732,7 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B643">
         <v>31.5</v>
@@ -15754,12 +15747,12 @@
         <v>408</v>
       </c>
       <c r="F643" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B644">
         <v>10.5</v>
@@ -15774,12 +15767,12 @@
         <v>408</v>
       </c>
       <c r="F644" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B645">
         <v>10.1</v>
@@ -15788,10 +15781,10 @@
         <v>1.64</v>
       </c>
       <c r="D645" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E645" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="E645" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="F645" s="2" t="s">
         <v>219</v>
@@ -15799,7 +15792,7 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B646">
         <v>2.8</v>
@@ -15811,15 +15804,15 @@
         <v>75</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B647">
         <v>14.2</v>
@@ -15828,10 +15821,10 @@
         <v>1.77</v>
       </c>
       <c r="D647" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E647" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="E647" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="F647" s="2" t="s">
         <v>470</v>
@@ -15839,7 +15832,7 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B648">
         <v>9.5</v>
@@ -15859,7 +15852,7 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B649">
         <v>5.6</v>
@@ -15874,7 +15867,7 @@
         <v>485</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
